--- a/genshin/430679142689334030_2020-09-03_14-15-02.xlsx
+++ b/genshin/430679142689334030_2020-09-03_14-15-02.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2020-12-12 02:50:22</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44177.11831018519</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -618,10 +632,8 @@
           <t>3450098818</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2020-09-05 14:27:23</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44079.60234953704</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -697,10 +709,8 @@
           <t>3452359509</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2020-09-04 22:53:17</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44078.95366898148</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -768,10 +778,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2020-09-04 18:09:59</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44078.75693287037</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -831,10 +839,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:35:30</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44078.52465277778</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -902,10 +908,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:32:56</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44078.52287037037</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -973,10 +977,8 @@
           <t>3449996156</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2020-09-04 10:47:44</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44078.44981481481</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1052,10 +1054,8 @@
           <t>3450632571</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2020-09-04 10:47:22</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44078.44956018519</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
@@ -1123,10 +1123,8 @@
           <t>3449996156</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2020-09-04 10:46:53</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44078.44922453703</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1194,10 +1192,8 @@
           <t>3449862095</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2020-09-04 10:45:58</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44078.44858796296</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1265,10 +1261,8 @@
           <t>3452752926</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2020-09-04 09:57:39</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44078.41503472222</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1332,10 +1326,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2020-09-04 09:27:41</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44078.39422453703</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1399,10 +1391,8 @@
           <t>3452684218</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2020-09-04 09:25:05</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44078.39241898148</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1471,10 +1461,8 @@
           <t>3452684118</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2020-09-04 09:24:56</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44078.39231481482</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1543,10 +1531,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2020-09-04 07:19:12</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44078.305</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1616,10 +1602,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2020-09-04 06:22:13</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44078.26542824074</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
@@ -1683,10 +1667,8 @@
           <t>3452359509</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2020-09-04 04:12:07</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44078.17508101852</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1759,10 +1741,8 @@
           <t>3452359432</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2020-09-04 04:11:39</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44078.17475694444</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1835,10 +1815,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2020-09-04 01:18:19</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44078.05438657408</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1910,10 +1888,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2020-09-04 00:59:05</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44078.04103009259</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1981,10 +1957,8 @@
           <t>3451824969</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2020-09-03 23:22:06</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44077.97368055556</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2048,10 +2022,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2020-09-03 23:21:27</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44077.97322916667</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2115,10 +2087,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2020-09-03 22:29:30</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44077.93715277778</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2182,10 +2152,8 @@
           <t>3451600290</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2020-09-03 22:28:44</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44077.93662037037</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2249,10 +2217,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2020-09-03 20:54:17</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44077.8710300926</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2320,10 +2286,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2020-09-03 20:37:28</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44077.85935185185</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2399,10 +2363,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2020-09-03 20:20:28</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44077.8475462963</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2470,10 +2432,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2020-09-03 20:09:05</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44077.8396412037</v>
       </c>
       <c r="I29" t="n">
         <v>1</v>
@@ -2541,10 +2501,8 @@
           <t>3450991339</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2020-09-03 20:05:15</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44077.83697916667</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2616,10 +2574,8 @@
           <t>3450991339</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2020-09-03 20:04:05</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44077.83616898148</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2695,10 +2651,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2020-09-03 19:36:05</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44077.81672453704</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2762,10 +2716,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2020-09-03 19:15:04</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44077.80212962963</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2833,10 +2785,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2020-09-03 19:14:20</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44077.80162037037</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2904,10 +2854,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2020-09-03 18:46:20</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44077.78217592592</v>
       </c>
       <c r="I35" t="n">
         <v>3</v>
@@ -2979,10 +2927,8 @@
           <t>3450675278</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2020-09-03 18:44:52</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44077.78115740741</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3054,10 +3000,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2020-09-03 18:38:39</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44077.77684027778</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3129,10 +3073,8 @@
           <t>3450632571</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2020-09-03 18:35:25</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44077.77459490741</v>
       </c>
       <c r="I38" t="n">
         <v>2</v>
@@ -3200,10 +3142,8 @@
           <t>3450566474</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2020-09-03 18:18:35</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44077.76290509259</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3279,10 +3219,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2020-09-03 18:18:03</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44077.76253472222</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3358,10 +3296,8 @@
           <t>3450322811</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2020-09-03 18:15:58</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44077.76108796296</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3425,10 +3361,8 @@
           <t>3450322811</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2020-09-03 18:14:39</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44077.76017361111</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3492,10 +3426,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2020-09-03 18:08:50</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44077.75613425926</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3567,10 +3499,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2020-09-03 17:52:33</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44077.74482638889</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3642,10 +3572,8 @@
           <t>3450098818</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2020-09-03 17:51:54</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44077.744375</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3717,10 +3645,8 @@
           <t>3450452733</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2020-09-03 17:49:47</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44077.74290509259</v>
       </c>
       <c r="I46" t="n">
         <v>2</v>
@@ -3780,10 +3706,8 @@
           <t>3450443865</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2020-09-03 17:47:38</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44077.74141203704</v>
       </c>
       <c r="I47" t="n">
         <v>1</v>
@@ -3859,10 +3783,8 @@
           <t>3450428546</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2020-09-03 17:43:08</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44077.73828703703</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3930,10 +3852,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2020-09-03 17:40:56</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44077.73675925926</v>
       </c>
       <c r="I49" t="n">
         <v>2</v>
@@ -4001,10 +3921,8 @@
           <t>3449982095</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2020-09-03 17:40:44</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44077.73662037037</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4080,10 +3998,8 @@
           <t>3450421059</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2020-09-03 17:39:58</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44077.73608796296</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4159,10 +4075,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2020-09-03 17:38:08</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44077.73481481482</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4226,10 +4140,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2020-09-03 17:37:59</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44077.73471064815</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4305,10 +4217,8 @@
           <t>3450247748</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2020-09-03 17:35:45</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44077.73315972222</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4376,10 +4286,8 @@
           <t>3449982095</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2020-09-03 17:30:11</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44077.72929398148</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4455,10 +4363,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2020-09-03 17:28:01</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44077.72778935185</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4530,10 +4436,8 @@
           <t>3450372259</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2020-09-03 17:25:36</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44077.72611111111</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4597,10 +4501,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2020-09-03 17:13:18</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44077.71756944444</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4669,10 +4571,8 @@
           <t>3450322811</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2020-09-03 17:11:20</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44077.71620370371</v>
       </c>
       <c r="I59" t="n">
         <v>4</v>
@@ -4744,10 +4644,8 @@
           <t>3450307973</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2020-09-03 17:06:43</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44077.71299768519</v>
       </c>
       <c r="I60" t="n">
         <v>2</v>
@@ -4823,10 +4721,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2020-09-03 17:05:14</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44077.71196759259</v>
       </c>
       <c r="I61" t="n">
         <v>1</v>
@@ -4902,10 +4798,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2020-09-03 17:01:54</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44077.70965277778</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -4981,10 +4875,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2020-09-03 17:00:06</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44077.70840277777</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5044,10 +4936,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2020-09-03 16:54:43</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44077.70466435186</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5119,10 +5009,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2020-09-03 16:49:34</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44077.70108796296</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5186,10 +5074,8 @@
           <t>3450247748</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2020-09-03 16:48:35</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44077.70040509259</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5257,10 +5143,8 @@
           <t>3450247748</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2020-09-03 16:46:27</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44077.69892361111</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5328,10 +5212,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2020-09-03 16:44:02</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44077.69724537037</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5399,10 +5281,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2020-09-03 16:43:57</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44077.6971875</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5478,10 +5358,8 @@
           <t>3449982095</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2020-09-03 16:40:52</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44077.6950462963</v>
       </c>
       <c r="I70" t="n">
         <v>1</v>
@@ -5549,10 +5427,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2020-09-03 16:40:36</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44077.69486111111</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5616,10 +5492,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2020-09-03 16:39:40</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44077.69421296296</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5687,10 +5561,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2020-09-03 16:39:28</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44077.69407407408</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5758,10 +5630,8 @@
           <t>3449988391</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2020-09-03 16:38:41</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44077.69353009259</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5829,10 +5699,8 @@
           <t>3449982095</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2020-09-03 16:34:54</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44077.69090277778</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5908,10 +5776,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2020-09-03 16:33:39</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44077.69003472223</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -5987,10 +5853,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2020-09-03 16:28:48</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44077.68666666667</v>
       </c>
       <c r="I77" t="n">
         <v>1</v>
@@ -6058,10 +5922,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2020-09-03 16:18:26</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44077.67946759259</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6133,10 +5995,8 @@
           <t>3449988391</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2020-09-03 16:15:34</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44077.67747685185</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6212,10 +6072,8 @@
           <t>3449996156</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2020-09-03 16:15:09</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44077.6771875</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6291,10 +6149,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2020-09-03 16:13:49</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44077.67626157407</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6367,10 +6223,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2020-09-03 16:13:04</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44077.67574074074</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6438,10 +6292,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2020-09-03 16:02:01</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44077.66806712963</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6509,10 +6361,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2020-09-03 16:01:10</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44077.66747685185</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6576,10 +6426,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2020-09-03 15:58:06</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44077.66534722222</v>
       </c>
       <c r="I85" t="n">
         <v>1</v>
@@ -6651,10 +6499,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2020-09-03 15:55:39</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44077.66364583333</v>
       </c>
       <c r="I86" t="n">
         <v>1</v>
@@ -6722,10 +6568,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2020-09-03 15:55:18</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44077.66340277778</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6793,10 +6637,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2020-09-03 15:53:04</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44077.66185185185</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6872,10 +6714,8 @@
           <t>3450098818</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2020-09-03 15:51:56</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44077.66106481481</v>
       </c>
       <c r="I89" t="n">
         <v>1</v>
@@ -6951,10 +6791,8 @@
           <t>3449862095</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2020-09-03 15:47:09</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44077.65774305556</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7026,10 +6864,8 @@
           <t>3449862095</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2020-09-03 15:45:20</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44077.65648148148</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7097,10 +6933,8 @@
           <t>3449862095</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2020-09-03 15:43:56</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44077.65550925926</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7172,10 +7006,8 @@
           <t>3450006350</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2020-09-03 15:40:09</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44077.65288194444</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7243,10 +7075,8 @@
           <t>3449996156</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2020-09-03 15:39:43</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44077.65258101852</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7314,10 +7144,8 @@
           <t>3449990987</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2020-09-03 15:39:24</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44077.65236111111</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7385,10 +7213,8 @@
           <t>3449921400</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2020-09-03 15:39:05</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44077.6521412037</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7456,10 +7282,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2020-09-03 15:38:42</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44077.651875</v>
       </c>
       <c r="I97" t="n">
         <v>1</v>
@@ -7536,10 +7360,8 @@
           <t>3450066178</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2020-09-03 15:37:19</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44077.65091435185</v>
       </c>
       <c r="I98" t="n">
         <v>1</v>
@@ -7615,10 +7437,8 @@
           <t>3449862095</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2020-09-03 15:36:01</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44077.65001157407</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7686,10 +7506,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2020-09-03 15:32:03</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44077.64725694444</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7757,10 +7575,8 @@
           <t>3450055094</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2020-09-03 15:31:26</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44077.64682870371</v>
       </c>
       <c r="I101" t="n">
         <v>2</v>
@@ -7837,10 +7653,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2020-09-03 15:25:18</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44077.64256944445</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7904,10 +7718,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2020-09-03 15:24:49</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44077.64223379629</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -7979,10 +7791,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2020-09-03 15:21:08</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44077.63967592592</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -8058,10 +7868,8 @@
           <t>3450008748</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2020-09-03 15:16:57</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44077.63677083333</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8130,10 +7938,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2020-09-03 15:15:50</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44077.63599537037</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8197,10 +8003,8 @@
           <t>3450006350</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2020-09-03 15:14:05</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44077.63478009259</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8272,10 +8076,8 @@
           <t>3449988391</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2020-09-03 15:11:37</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44077.63306712963</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8343,10 +8145,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2020-09-03 15:11:17</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44077.63283564815</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8410,10 +8210,8 @@
           <t>3449979859</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2020-09-03 15:11:09</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44077.63274305555</v>
       </c>
       <c r="I110" t="n">
         <v>5</v>
@@ -8481,10 +8279,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2020-09-03 15:10:55</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44077.63258101852</v>
       </c>
       <c r="I111" t="n">
         <v>2</v>
@@ -8556,10 +8352,8 @@
           <t>3449982095</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2020-09-03 15:10:52</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44077.6325462963</v>
       </c>
       <c r="I112" t="n">
         <v>1</v>
@@ -8627,10 +8421,8 @@
           <t>3449917316</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2020-09-03 15:09:48</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44077.63180555555</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8698,10 +8490,8 @@
           <t>3449996156</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2020-09-03 15:09:09</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44077.63135416667</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8777,10 +8567,8 @@
           <t>3449988391</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2020-09-03 15:09:05</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44077.63130787037</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8856,10 +8644,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2020-09-03 15:08:57</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44077.63121527778</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8935,10 +8721,8 @@
           <t>3449990987</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2020-09-03 15:07:55</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44077.63049768518</v>
       </c>
       <c r="I117" t="n">
         <v>1</v>
@@ -9014,10 +8798,8 @@
           <t>3449979859</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2020-09-03 15:06:35</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44077.62957175926</v>
       </c>
       <c r="I118" t="n">
         <v>11</v>
@@ -9093,10 +8875,8 @@
           <t>3449982095</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2020-09-03 15:04:18</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44077.62798611111</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9172,10 +8952,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2020-09-03 15:02:47</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44077.62693287037</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9243,10 +9021,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2020-09-03 15:02:43</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44077.62688657407</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9314,10 +9090,8 @@
           <t>3449949512</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:53:54</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44077.62076388889</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9381,10 +9155,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:52:21</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44077.6196875</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9448,10 +9220,8 @@
           <t>3449939024</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:48:36</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44077.61708333333</v>
       </c>
       <c r="I124" t="n">
         <v>28</v>
@@ -9523,10 +9293,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:45:41</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44077.61505787037</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9594,10 +9362,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:45:36</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44077.615</v>
       </c>
       <c r="I126" t="n">
         <v>1</v>
@@ -9661,10 +9427,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:43:51</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44077.61378472222</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9724,10 +9488,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:43:28</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44077.61351851852</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9803,10 +9565,8 @@
           <t>3449924574</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:43:15</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44077.61336805556</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9874,10 +9634,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:40:54</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44077.61173611111</v>
       </c>
       <c r="I130" t="n">
         <v>1</v>
@@ -9955,10 +9713,8 @@
           <t>3449921400</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:39:35</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44077.61082175926</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -10034,10 +9790,8 @@
           <t>3449917316</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:39:08</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44077.61050925926</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10113,10 +9867,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:38:52</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44077.61032407408</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10188,10 +9940,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:38:50</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44077.61030092592</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10259,10 +10009,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:37:46</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44077.60956018518</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10322,10 +10070,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:36:43</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44077.60883101852</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10389,10 +10135,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:35:21</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44077.60788194444</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10464,10 +10208,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:33:23</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44077.6065162037</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10543,10 +10285,8 @@
           <t>3449902100</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:32:57</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44077.60621527778</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10618,10 +10358,8 @@
           <t>3449898336</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:32:22</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44077.60581018519</v>
       </c>
       <c r="I140" t="n">
         <v>1</v>
@@ -10698,10 +10436,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:29:57</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44077.60413194444</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10769,10 +10505,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:29:41</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44077.60394675926</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10844,10 +10578,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:28:23</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44077.60304398148</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10926,10 +10658,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:28:16</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44077.60296296296</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -11005,10 +10735,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:28:09</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44077.60288194445</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -11072,10 +10800,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:25:34</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44077.60108796296</v>
       </c>
       <c r="I146" t="n">
         <v>12</v>
@@ -11147,10 +10873,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:25:13</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44077.60084490741</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11222,10 +10946,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:25:03</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44077.60072916667</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11294,10 +11016,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:25:02</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44077.60071759259</v>
       </c>
       <c r="I149" t="n">
         <v>1</v>
@@ -11369,10 +11089,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:23:49</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44077.59987268518</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11444,10 +11162,8 @@
           <t>3449862095</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:23:36</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44077.59972222222</v>
       </c>
       <c r="I151" t="n">
         <v>7</v>
@@ -11519,10 +11235,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:23:33</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44077.5996875</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11595,10 +11309,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:22:41</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44077.59908564815</v>
       </c>
       <c r="I153" t="n">
         <v>1</v>
@@ -11662,10 +11374,8 @@
           <t>3449876653</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:22:31</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44077.59896990741</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11729,10 +11439,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:22:20</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44077.59884259259</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11804,10 +11512,8 @@
           <t>3449862095</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:21:47</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44077.59846064815</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11875,10 +11581,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:20:51</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44077.5978125</v>
       </c>
       <c r="I157" t="n">
         <v>1</v>
@@ -11942,10 +11646,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:20:06</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44077.59729166667</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -12017,10 +11719,8 @@
           <t>3449864655</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:20:05</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44077.5972800926</v>
       </c>
       <c r="I159" t="n">
         <v>1</v>
@@ -12096,10 +11796,8 @@
           <t>3449867955</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:19:47</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44077.59707175926</v>
       </c>
       <c r="I160" t="n">
         <v>7</v>
@@ -12175,10 +11873,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:19:45</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44077.59704861111</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12246,10 +11942,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:19:44</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44077.59703703703</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12317,10 +12011,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:19:42</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44077.59701388889</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12392,10 +12084,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:19:03</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44077.5965625</v>
       </c>
       <c r="I164" t="n">
         <v>16</v>
@@ -12463,10 +12153,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:18:53</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44077.59644675926</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12534,10 +12222,8 @@
           <t>3449866571</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:18:06</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44077.59590277778</v>
       </c>
       <c r="I166" t="n">
         <v>10</v>
@@ -12609,10 +12295,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:17:46</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44077.59567129629</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12688,10 +12372,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:17:41</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44077.59561342592</v>
       </c>
       <c r="I168" t="n">
         <v>46</v>
@@ -12763,10 +12445,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:17:28</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44077.59546296296</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12830,10 +12510,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:17:16</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44077.59532407407</v>
       </c>
       <c r="I170" t="n">
         <v>34</v>
@@ -12901,10 +12579,8 @@
           <t>3449862095</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:17:09</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44077.59524305556</v>
       </c>
       <c r="I171" t="n">
         <v>2</v>
@@ -12974,10 +12650,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:17:03</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44077.59517361111</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -13049,10 +12723,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:16:52</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44077.59504629629</v>
       </c>
       <c r="I173" t="n">
         <v>507</v>
@@ -13128,10 +12800,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:16:39</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44077.59489583333</v>
       </c>
       <c r="I174" t="n">
         <v>55</v>
@@ -13207,10 +12877,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:16:28</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44077.59476851852</v>
       </c>
       <c r="I175" t="n">
         <v>3</v>
@@ -13278,10 +12946,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:16:24</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44077.59472222222</v>
       </c>
       <c r="I176" t="n">
         <v>8</v>
@@ -13345,10 +13011,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:16:09</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44077.59454861111</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13424,10 +13088,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:16:05</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44077.59450231482</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13491,10 +13153,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:15:55</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44077.59438657408</v>
       </c>
       <c r="I179" t="n">
         <v>1</v>
@@ -13562,10 +13222,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:15:53</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44077.59436342592</v>
       </c>
       <c r="I180" t="n">
         <v>2</v>
@@ -13629,10 +13287,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:15:47</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44077.59429398148</v>
       </c>
       <c r="I181" t="n">
         <v>6</v>
@@ -13708,10 +13364,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:15:46</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44077.59428240741</v>
       </c>
       <c r="I182" t="n">
         <v>138</v>
@@ -13779,10 +13433,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:15:42</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44077.59423611111</v>
       </c>
       <c r="I183" t="n">
         <v>2</v>
@@ -13850,10 +13502,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:15:39</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44077.59420138889</v>
       </c>
       <c r="I184" t="n">
         <v>3</v>
@@ -13929,10 +13579,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:15:38</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44077.59418981482</v>
       </c>
       <c r="I185" t="n">
         <v>1</v>
@@ -14004,10 +13652,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:15:36</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44077.59416666667</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -14075,10 +13721,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:15:29</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44077.59408564815</v>
       </c>
       <c r="I187" t="n">
         <v>124</v>
@@ -14146,10 +13790,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:15:26</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44077.59405092592</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
